--- a/Base/Teams/Steelers/2021 Team Data.xlsx
+++ b/Base/Teams/Steelers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3</t>
-  </si>
-  <si>
-    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11</t>
-  </si>
-  <si>
-    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4</t>
-  </si>
-  <si>
-    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19</t>
+    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2</t>
+  </si>
+  <si>
+    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5</t>
+  </si>
+  <si>
+    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1</t>
+  </si>
+  <si>
+    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67</t>
-  </si>
-  <si>
-    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12</t>
-  </si>
-  <si>
-    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25</t>
-  </si>
-  <si>
-    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0</t>
-  </si>
-  <si>
-    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0</t>
+    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62</t>
+  </si>
+  <si>
+    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0</t>
+  </si>
+  <si>
+    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13</t>
+  </si>
+  <si>
+    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0</t>
+  </si>
+  <si>
+    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D2">
         <v>9</v>
@@ -677,10 +677,10 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -689,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M2">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="N2">
         <v>12</v>
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="Q2">
-        <v>407</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -730,19 +730,19 @@
         <v>26</v>
       </c>
       <c r="F3">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>118</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,37 +943,37 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
         <v>38</v>
       </c>
-      <c r="G2">
-        <v>37</v>
-      </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>8</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="M2">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="N2">
         <v>14</v>
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="Q2">
-        <v>350</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>120</v>
       </c>
       <c r="N3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G2">
         <v>224</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>102</v>
@@ -1245,16 +1245,16 @@
         <v>97</v>
       </c>
       <c r="L2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1423,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Steelers/2021 Team Data.xlsx
+++ b/Base/Teams/Steelers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2</t>
-  </si>
-  <si>
-    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5</t>
-  </si>
-  <si>
-    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1</t>
-  </si>
-  <si>
-    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6</t>
+    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2</t>
+  </si>
+  <si>
+    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12</t>
+  </si>
+  <si>
+    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2</t>
+  </si>
+  <si>
+    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0</t>
   </si>
   <si>
-    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13</t>
-  </si>
-  <si>
-    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0</t>
-  </si>
-  <si>
-    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8</t>
+    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17</t>
+  </si>
+  <si>
+    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0</t>
+  </si>
+  <si>
+    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>180</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q2">
         <v>466</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="M3">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="N3">
         <v>13</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>303</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -979,10 +979,10 @@
         <v>14</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <v>428</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="M3">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="N3">
         <v>24</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>338</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -1215,28 +1215,28 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>102</v>
@@ -1245,7 +1245,7 @@
         <v>97</v>
       </c>
       <c r="L2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M2">
         <v>57</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Steelers/2021 Team Data.xlsx
+++ b/Base/Teams/Steelers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2</t>
-  </si>
-  <si>
-    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12</t>
-  </si>
-  <si>
-    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2</t>
-  </si>
-  <si>
-    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17</t>
+    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5</t>
+  </si>
+  <si>
+    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4</t>
+  </si>
+  <si>
+    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3</t>
+  </si>
+  <si>
+    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62</t>
-  </si>
-  <si>
-    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0</t>
-  </si>
-  <si>
-    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17</t>
-  </si>
-  <si>
-    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0</t>
-  </si>
-  <si>
-    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0</t>
+    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59</t>
+  </si>
+  <si>
+    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19</t>
+  </si>
+  <si>
+    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18</t>
+  </si>
+  <si>
+    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0</t>
+  </si>
+  <si>
+    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,13 +665,13 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>11</v>
@@ -680,7 +680,7 @@
         <v>48</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -689,16 +689,16 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="M2">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="N2">
         <v>17</v>
@@ -710,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="Q2">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>146</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,52 +940,52 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>9</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="M2">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>428</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>134</v>
       </c>
       <c r="N3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,19 +1239,19 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>16</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,7 +1368,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Steelers/2021 Team Data.xlsx
+++ b/Base/Teams/Steelers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5</t>
-  </si>
-  <si>
-    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4</t>
-  </si>
-  <si>
-    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3</t>
-  </si>
-  <si>
-    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8</t>
+    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2</t>
+  </si>
+  <si>
+    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12</t>
+  </si>
+  <si>
+    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3</t>
+  </si>
+  <si>
+    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59</t>
-  </si>
-  <si>
-    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19</t>
-  </si>
-  <si>
-    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18</t>
-  </si>
-  <si>
-    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0</t>
-  </si>
-  <si>
-    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11</t>
+    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60</t>
+  </si>
+  <si>
+    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20</t>
+  </si>
+  <si>
+    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13</t>
+  </si>
+  <si>
+    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0</t>
+  </si>
+  <si>
+    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>197</v>
       </c>
       <c r="N2">
+        <v>19</v>
+      </c>
+      <c r="O2">
         <v>17</v>
       </c>
-      <c r="O2">
-        <v>14</v>
-      </c>
       <c r="P2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q2">
         <v>518</v>
@@ -721,37 +721,37 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>31</v>
       </c>
       <c r="I3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="M3">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>379</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>165</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
         <v>510</v>
@@ -996,37 +996,37 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="M3">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="N3">
         <v>28</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>407</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>73</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Steelers/2021 Team Data.xlsx
+++ b/Base/Teams/Steelers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2</t>
-  </si>
-  <si>
-    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12</t>
-  </si>
-  <si>
-    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3</t>
-  </si>
-  <si>
-    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22</t>
+    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 4 3 8 6 5 8 1 7 0 8 5 14 2 30 -1 5 3 4 1 10 5 3 5 2 3 4 4 4 37</t>
+  </si>
+  <si>
+    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 6 -4 8 -2 6 0 5 11 7 3 5 0 13 1 12 3 9 1 8 4 3 10 12 2</t>
+  </si>
+  <si>
+    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 -2 32 2 6 4 1 2 4 1 3 4 7 3 6 0 -2 4 2 14 2</t>
+  </si>
+  <si>
+    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 20 9 22 7 7 39 3 21 8 8 1 8 9 1 7</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60</t>
-  </si>
-  <si>
-    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20</t>
+    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60 62 65 59 60 68 66</t>
+  </si>
+  <si>
+    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20 21 21 29 21 27 21</t>
   </si>
   <si>
     <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13</t>
   </si>
   <si>
-    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0</t>
-  </si>
-  <si>
-    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20</t>
+    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63 53 43 44 53 51</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0 4 0 9 9 7</t>
+  </si>
+  <si>
+    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20 0 0 15 10 5 0 14</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -677,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -689,28 +689,28 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="M2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="N2">
         <v>19</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q2">
-        <v>518</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="J3">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>174</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -952,40 +952,40 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="M2">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="N2">
         <v>16</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>510</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>157</v>
       </c>
       <c r="N3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,22 +1239,22 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1368,10 +1368,10 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Steelers/2021 Team Data.xlsx
+++ b/Base/Teams/Steelers/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 4 3 8 6 5 8 1 7 0 8 5 14 2 30 -1 5 3 4 1 10 5 3 5 2 3 4 4 4 37</t>
-  </si>
-  <si>
-    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 6 -4 8 -2 6 0 5 11 7 3 5 0 13 1 12 3 9 1 8 4 3 10 12 2</t>
-  </si>
-  <si>
-    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 -2 32 2 6 4 1 2 4 1 3 4 7 3 6 0 -2 4 2 14 2</t>
-  </si>
-  <si>
-    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 20 9 22 7 7 39 3 21 8 8 1 8 9 1 7</t>
+    <t>2 4 2 2 -4 2 0 9 2 1 2 25 -2 5 18 3 8 -1 2 -1 14 -2 1 1 14 -3 2 3 1 4 0 3 4 2 4 -3 5 1 1 3 20 0 2 2 1 2 1 10 0 2 4 5 4 8 -2 2 3 11 6 1 3 4 1 6 3 3 3 5 7 6 5 2 4 5 20 -3 3 5 3 0 0 1 3 13 -2 5 18 3 8 -1 -1 4 9 2 1 4 4 1 5 0 -2 1 6 1 25 2 4 1 4 4 5 0 1 6 -1 10 11 2 1 4 9 3 10 5 4 -3 3 3 9 1 2 5 17 16 -3 11 -3 16 6 6 8 5 3 2 1 8 3 5 0 5 2 0 2 2 -1 1 2 1 3 12 10 2 2 7 2 0 5 8 4 5 4 -2 11 0 11 2 0 0 3 1 2 1 13 -1 3 1 5 3 3 11 2 5 5 0 2 9 3 12 26 1 7 4 11 1 0 6 8 4 2 3 3 1 3 2 4 0 1 4 2 4 3 6 4 3 5 2 3 0 12 4 0 3 -2 1 3 1 2 2 4 5 4 3 5 0 4 3 -1 13 3 2 7 0 5 -1 5 4 2 3 6 2 2 0 1 8 3 2 0 8 13 3 5 8 -2 2 3 -2 7 2 -1 3 -2 9 3 4 4 23 8 3 11 13 1 1 2 3 6 -2 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 -2 0 2 1 21 5 5 8 6 6 6 12 4 6 3 6 6 5 8 4 2 11 17 2 4 3 8 6 5 8 1 7 0 8 5 14 2 30 -1 5 3 4 1 10 5 3 5 2 3 4 4 4 37 1 1 5 9 -1 2 2 -6 1 1 2 0 7 14 1 -1 3 17 -1 0 2 4 3 0 2 0 15 2 -2 2 5 2 4 3 4 4 8 0 -2 2 4 7 2 13 4</t>
+  </si>
+  <si>
+    <t>14 6 6 12 9 10 6 19 22 5 9 24 4 -2 5 24 14 1 6 5 2 2 9 7 9 17 6 13 5 41 5 14 3 8 16 52 25 4 5 9 5 4 12 0 11 5 3 0 6 3 7 3 16 12 6 6 3 18 4 6 15 21 16 4 24 0 6 8 3 5 8 7 5 8 11 17 5 29 9 3 8 8 3 9 2 45 6 8 10 4 17 4 6 12 11 11 5 0 4 11 10 7 9 30 3 4 23 50 4 5 13 6 59 5 14 14 3 18 1 22 16 7 9 2 7 9 12 6 4 12 5 6 5 12 9 6 5 2 1 15 14 23 6 12 4 12 7 12 2 3 11 6 12 17 9 3 3 4 9 2 12 7 16 22 4 13 20 24 14 6 50 2 26 9 11 4 0 7 3 1 3 42 10 9 4 10 2 11 4 12 22 13 6 11 4 9 9 -3 7 17 -2 1 7 20 -4 14 6 3 6 5 14 10 9 6 39 10 6 8 9 7 10 8 4 16 0 8 37 22 7 9 10 2 2 6 28 5 7 1 5 16 4 5 32 18 4 5 5 7 11 41 0 11 7 11 2 15 3 10 12 2 30 9 16 13 9 6 8 15 6 5 10 11 3 18 7 12 4 17 5 14 7 7 4 9 40 29 25 9 2 5 9 5 5 7 6 15 6 5 6 6 17 29 5 -2 8 3 14 1 37 30 6 15 6 38 9 1 13 3 10 12 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 18 9 5 -3 24 10 0 1 3 5 10 6 2 17 4 8 2 5 6 6 3 3 7 4 6 12 6 -4 8 -2 6 0 5 11 7 3 5 0 13 1 12 3 9 1 8 4 3 10 12 2 4 11 10 7 0 7 25 2 5 16 8 2 10 10 7 8 -2 8 20 11 3 6 10 6 3 11 14 1 11 3 4 7 5 5 0 16 0 6 8 5 5 22 13 1 4 7 9 8 15 5 5 7 7 10 12 11 11</t>
+  </si>
+  <si>
+    <t>8 2 6 9 1 8 -3 1 3 1 3 3 3 7 3 2 2 11 2 6 15 25 2 3 2 4 1 0 4 5 -2 2 1 -2 4 -2 1 1 -4 11 5 2 -4 3 13 1 3 1 2 6 4 -2 6 27 1 -1 3 11 11 4 3 2 8 1 1 5 2 7 -1 4 4 3 0 7 3 6 4 4 -2 15 9 6 5 3 6 3 1 -3 3 25 1 -1 5 4 5 6 2 -1 3 3 1 5 2 -4 8 0 49 2 7 1 1 2 3 10 -1 11 4 5 7 7 6 -1 5 11 21 5 7 7 5 0 2 0 3 1 14 3 26 5 10 -1 -1 6 1 -4 14 4 2 5 1 3 1 0 11 21 2 4 0 10 -2 2 0 5 2 12 1 -1 2 3 8 21 2 8 1 6 2 8 1 0 6 2 2 3 2 10 3 1 12 5 2 15 3 8 1 7 9 3 0 0 4 28 15 4 2 5 21 -1 6 16 1 12 14 42 4 1 4 1 0 -5 0 4 -4 2 6 5 3 0 1 -2 8 4 2 3 7 6 10 4 0 18 2 18 2 12 6 -2 13 4 5 2 5 36 5 25 3 7 2 3 6 3 8 3 1 6 4 5 9 8 9 0 9 5 1 8 9 4 -1 0 1 32 1 1 2 3 13 2 3 -2 -1 4 1 12 5 18 -1 3 5 3 8 -2 4 5 3 8 6 8 0 -1 -2 13 3 2 2 3 1 20 4 30 14 3 3 16 15 3 29 9 3 0 1 7 7 9 8 5 -4 7 14 -3 5 -2 8 5 4 1 11 2 4 -1 0 2 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 0 3 4 0 1 3 8 12 5 5 2 3 2 7 2 6 3 8 3 10 4 6 7 2 7 4 0 1 0 0 1 5 -2 3 -2 32 2 6 4 1 2 4 1 3 4 7 3 6 0 -2 4 2 14 2 2 2 0 4 22 -5 2 3 3 4 2 3 18 8 -1 8 10 46 1 22 27 3 6 0 4 2 6 1 21 0 11 4 4 3 1 6 4 4 4 2 2 -1 23 -2 15 13 12 1 0 -2 -4 5 4 3 6 11 -1</t>
+  </si>
+  <si>
+    <t>7 -2 6 5 10 16 13 4 7 12 10 5 37 10 8 3 7 9 9 12 7 4 6 12 -1 13 10 13 5 9 3 11 10 17 13 10 25 6 4 3 8 9 14 18 9 23 30 9 13 2 13 16 7 4 10 61 25 12 15 7 17 7 19 34 14 8 14 5 9 4 7 5 21 7 16 4 8 12 6 6 23 7 19 10 25 26 11 1 28 2 11 5 10 9 6 14 12 12 3 12 19 10 9 15 9 39 23 6 9 5 23 6 -1 2 27 12 -3 12 14 0 9 14 41 1 3 -4 7 7 7 2 11 7 12 21 10 6 16 12 8 14 6 19 8 7 11 15 21 8 11 24 9 6 11 9 4 3 6 25 8 21 17 50 10 11 20 28 5 9 39 16 11 12 2 -3 7 5 19 0 5 5 9 4 1 30 8 2 22 5 11 6 17 5 7 10 18 10 14 9 10 18 6 30 14 17 8 5 7 17 3 11 12 13 5 17 53 5 9 5 16 4 12 32 11 16 7 15 16 6 0 -4 0 -7 16 12 19 14 16 18 0 9 9 8 2 10 29 3 10 15 15 3 17 6 5 22 18 13 5 6 8 5 8 14 18 22 19 17 13 0 1 62 12 17 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 10 11 11 9 13 -1 5 18 18 5 7 3 14 8 50 3 8 9 4 6 9 16 22 20 9 22 7 7 39 3 21 8 8 1 8 9 1 7 3 19 13 11 10 6 0 28 7 1 5 1 6 11 8 12 -4 20 5 5 4 15 20 2 14 15 5 4 31 0 3 12 15 27 48 29 8 23 4 1 31 6 15 3 41 2 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60 62 65 59 60 68 66</t>
-  </si>
-  <si>
-    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20 21 21 29 21 27 21</t>
-  </si>
-  <si>
-    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13</t>
-  </si>
-  <si>
-    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63 53 43 44 53 51</t>
-  </si>
-  <si>
-    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0 4 0 9 9 7</t>
-  </si>
-  <si>
-    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20 0 0 15 10 5 0 14</t>
+    <t>64 63 58 55 60 68 66 64 65 50 65 58 68 63 63 46 55 68 70 59 73 63 57 67 63 59 60 67 61 62 67 66 62 62 64 59 60 62 65 59 60 68 66 53 56 58 59 59 64 60</t>
+  </si>
+  <si>
+    <t>75 23 19 26 22 23 30 21 16 10 22 18 34 38 25 0 10 25 16 19 26 32 17 18 29 38 28 28 23 22 12 26 35 0 21 19 20 21 21 29 21 27 21 19 23 27 26 18 23 27</t>
+  </si>
+  <si>
+    <t>28 18 28 18 22 38 27 40 15 20 37 19 17 25 19 21 19 14 21 30 33 24 24 25 14 19 13 23 33 17 20 18 19 29 13 32 13 21 23 14 29</t>
+  </si>
+  <si>
+    <t>41 51 39 30 46 38 59 42 58 45 50 27 40 45 20 37 56 63 45 38 58 56 32 50 56 38 56 44 38 38 32 46 41 39 39 61 46 39 45 50 46 31 37 42 38 42 38 64 43 47 25 40 49 45 49 41 34 27 51 32 40 49 58 63 53 43 44 53 51 36 34 26 49 33 46 36 38 54 56 55 42 47 41 53</t>
+  </si>
+  <si>
+    <t>0 1 0 0 0 0 10 0 16 16 -7 0 0 9 0 0 13 13 0 3 14 0 0 3 0 0 1 0 0 0 0 0 0 0 0 48 5 0 0 18 -1 0 0 17 0 0 0 0 12 0 0 16 12 0 0 15 0 0 55 0 0 0 18 0 4 0 9 9 7 0 0 0 0 0 0 0 0 21 1 48 0 0 0 -8</t>
+  </si>
+  <si>
+    <t>0 5 0 15 0 0 15 14 0 0 0 0 0 0 14 0 0 0 0 6 0 0 0 0 0 14 9 0 10 19 0 14 6 3 0 13 13 0 0 5 13 0 10 0 1 14 0 3 0 14 5 6 8 0 8 0 17 11 11 0 20 0 0 15 10 5 0 14 7 0 0 0 23 0 0 8 0 0 5</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -677,10 +677,10 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>221</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q2">
         <v>599</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
+        <v>43</v>
+      </c>
+      <c r="F3">
+        <v>140</v>
+      </c>
+      <c r="G3">
+        <v>57</v>
+      </c>
+      <c r="H3">
         <v>37</v>
       </c>
-      <c r="F3">
-        <v>124</v>
-      </c>
-      <c r="G3">
-        <v>51</v>
-      </c>
-      <c r="H3">
-        <v>33</v>
-      </c>
       <c r="I3">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J3">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="M3">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>452</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -940,31 +940,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>15</v>
       </c>
       <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
         <v>65</v>
-      </c>
-      <c r="G2">
-        <v>59</v>
       </c>
       <c r="H2">
         <v>6</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>181</v>
       </c>
       <c r="N2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
         <v>584</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>245</v>
+        <v>317</v>
       </c>
       <c r="M3">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="N3">
         <v>37</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>477</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
